--- a/副本users.xlsx
+++ b/副本users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\晗\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aa所有重要文件\大三下课程end\软件工程\大作业\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2066E50-8C05-4D72-B8AC-119EC211C2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA0601-0029-4182-B7C9-F30CBF69CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>$2b$10$nqcEZ9tjvJ9I7g0dCBhv0uHsfu7vIWVwPqPn2eE/jfnF8XF7yCBEW</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>xiaoming</t>
   </si>
   <si>
@@ -69,6 +66,10 @@
   </si>
   <si>
     <t>int(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +434,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -458,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -482,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -492,8 +493,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -506,15 +507,15 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -530,18 +531,18 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D5">
         <v>4</v>
